--- a/ZSS/resources/Purva Vihar/FY2014-15/03-March-2015.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/03-March-2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="A-Wing" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -553,7 +553,10 @@
     <t>Maintenance Charges for Month of March 2015.</t>
   </si>
   <si>
-    <t xml:space="preserve">      /03/15</t>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -977,6 +980,42 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1026,24 +1065,6 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1072,24 +1093,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
@@ -1146,62 +1149,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="13">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="3">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="0">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="21"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="20"/>
+    <tableColumn id="8" name="Date" dataDxfId="27"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="19">
-  <tableColumns count="12">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="18"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="17"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="25">
+  <tableColumns count="13">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="9">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="6">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="4"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="3"/>
+    <tableColumn id="8" name="Date" dataDxfId="16"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="15"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="14">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1495,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,7 +1521,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1530,7 +1535,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +1549,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1557,7 +1562,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1576,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>85</v>
       </c>
@@ -1581,7 +1586,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
@@ -1595,7 +1600,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1632,8 +1637,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1660,12 +1668,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>86</v>
+      <c r="I9" s="19">
+        <v>42082</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1692,12 +1703,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>86</v>
+      <c r="I10" s="19">
+        <v>42082</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1724,12 +1738,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>86</v>
+      <c r="I11" s="19">
+        <v>42082</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1756,12 +1773,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>86</v>
+      <c r="I12" s="19">
+        <v>42082</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1788,13 +1808,16 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1540</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>86</v>
+      <c r="I13" s="19">
+        <v>42082</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1821,12 +1844,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>86</v>
+      <c r="I14" s="19">
+        <v>42082</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1853,15 +1879,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>86</v>
+      <c r="I15" s="19">
+        <v>42064</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1888,12 +1917,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>610</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>86</v>
+      <c r="I16" s="19">
+        <v>42082</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1920,12 +1952,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>86</v>
+      <c r="I17" s="19">
+        <v>42082</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -1952,12 +1987,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>86</v>
+      <c r="I18" s="19">
+        <v>42082</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -1984,12 +2022,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>86</v>
+      <c r="I19" s="19">
+        <v>42082</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2016,12 +2057,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-170</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>86</v>
+      <c r="I20" s="19">
+        <v>42064</v>
       </c>
       <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2048,15 +2092,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>86</v>
+      <c r="I21" s="19">
+        <v>42064</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2083,12 +2130,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>86</v>
+      <c r="I22" s="19">
+        <v>42082</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2115,12 +2165,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>86</v>
+      <c r="I23" s="19">
+        <v>42082</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2147,15 +2200,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>86</v>
+      <c r="I24" s="19">
+        <v>42064</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2182,12 +2238,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>86</v>
+      <c r="I25" s="19">
+        <v>42082</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2214,15 +2273,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-600</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>86</v>
+      <c r="I26" s="19">
+        <v>42084</v>
       </c>
       <c r="J26" s="22"/>
       <c r="L26" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2255,7 +2317,7 @@
         <v>12980</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2271,7 +2333,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2285,7 +2347,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2305,7 +2367,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2349,10 +2411,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView view="pageLayout" topLeftCell="A5" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,7 +2433,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2385,7 +2447,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2399,7 +2461,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2412,7 +2474,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2426,7 +2488,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>85</v>
       </c>
@@ -2436,7 +2498,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>83</v>
       </c>
@@ -2450,7 +2512,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2487,8 +2549,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2515,12 +2580,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>500</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>86</v>
+      <c r="I9" s="19">
+        <v>42082</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2547,12 +2615,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>86</v>
+      <c r="I10" s="19">
+        <v>42083</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2579,12 +2650,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>86</v>
+      <c r="I11" s="19">
+        <v>42083</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2611,12 +2685,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>86</v>
+      <c r="I12" s="19">
+        <v>42082</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2643,12 +2720,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>86</v>
+      <c r="I13" s="19">
+        <v>42082</v>
       </c>
       <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2675,12 +2755,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2440</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>86</v>
+      <c r="I14" s="19">
+        <v>42082</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2707,12 +2790,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>86</v>
+      <c r="I15" s="19">
+        <v>42082</v>
       </c>
       <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2739,12 +2825,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>86</v>
+      <c r="I16" s="19">
+        <v>42082</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2771,12 +2860,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>86</v>
+      <c r="I17" s="19">
+        <v>42085</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2803,12 +2895,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>86</v>
+      <c r="I18" s="19">
+        <v>42082</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2835,12 +2930,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>86</v>
+      <c r="I19" s="19">
+        <v>42082</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2867,14 +2965,17 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2580</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>86</v>
+      <c r="I20" s="19">
+        <v>42082</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="P20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -2901,16 +3002,19 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>100</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>86</v>
+      <c r="I21" s="19">
+        <v>42082</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -2937,12 +3041,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>86</v>
+      <c r="I22" s="19">
+        <v>42082</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -2969,12 +3076,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>86</v>
+      <c r="I23" s="19">
+        <v>42082</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3001,12 +3111,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>330</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>86</v>
+      <c r="I24" s="19">
+        <v>42082</v>
       </c>
       <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3033,12 +3146,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>86</v>
+      <c r="I25" s="19">
+        <v>42082</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -3065,12 +3181,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>86</v>
+      <c r="I26" s="19">
+        <v>42082</v>
       </c>
       <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3103,7 +3222,7 @@
         <v>5930</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -3119,7 +3238,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3133,7 +3252,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -3153,7 +3272,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>

--- a/ZSS/resources/Purva Vihar/FY2014-15/03-March-2015.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/03-March-2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A-Wing" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -553,10 +553,7 @@
     <t>Maintenance Charges for Month of March 2015.</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Cheque</t>
+    <t xml:space="preserve">      /03/15</t>
   </si>
 </sst>
 </file>
@@ -980,42 +977,6 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1065,6 +1026,24 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1093,6 +1072,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
@@ -1149,64 +1146,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="12">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="3">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="0">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="27"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
+    <tableColumn id="8" name="Date" dataDxfId="21"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="20"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="25">
-  <tableColumns count="13">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="19">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="18"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="6">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="16"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="15"/>
+    <tableColumn id="8" name="Date" dataDxfId="4"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="3"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="2">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1500,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1516,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1530,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1549,7 +1544,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1562,7 +1557,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1576,7 +1571,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>85</v>
       </c>
@@ -1586,7 +1581,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
@@ -1600,7 +1595,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1637,11 +1632,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1668,15 +1660,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19">
-        <v>42082</v>
+      <c r="I9" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1703,15 +1692,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19">
-        <v>42082</v>
+      <c r="I10" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1738,15 +1724,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19">
-        <v>42082</v>
+      <c r="I11" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1773,15 +1756,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19">
-        <v>42082</v>
+      <c r="I12" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1808,16 +1788,13 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1540</v>
       </c>
-      <c r="I13" s="19">
-        <v>42082</v>
+      <c r="I13" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1844,15 +1821,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
-        <v>42082</v>
+      <c r="I14" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1879,18 +1853,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
-        <v>42064</v>
+      <c r="I15" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>82</v>
       </c>
-      <c r="M15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1917,15 +1888,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>610</v>
       </c>
-      <c r="I16" s="19">
-        <v>42082</v>
+      <c r="I16" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1952,15 +1920,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
-        <v>42082</v>
+      <c r="I17" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -1987,15 +1952,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>42082</v>
+      <c r="I18" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2022,15 +1984,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>42082</v>
+      <c r="I19" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2057,15 +2016,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-170</v>
       </c>
-      <c r="I20" s="19">
-        <v>42064</v>
+      <c r="I20" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2092,18 +2048,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I21" s="19">
-        <v>42064</v>
+      <c r="I21" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>82</v>
       </c>
-      <c r="M21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2130,15 +2083,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19">
-        <v>42082</v>
+      <c r="I22" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2165,15 +2115,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19">
-        <v>42082</v>
+      <c r="I23" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2200,18 +2147,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I24" s="19">
-        <v>42064</v>
+      <c r="I24" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>82</v>
       </c>
-      <c r="M24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2238,15 +2182,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I25" s="19">
-        <v>42082</v>
+      <c r="I25" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2273,18 +2214,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-600</v>
       </c>
-      <c r="I26" s="19">
-        <v>42084</v>
+      <c r="I26" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J26" s="22"/>
       <c r="L26" t="s">
         <v>84</v>
       </c>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2317,7 +2255,7 @@
         <v>12980</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2333,7 +2271,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2347,7 +2285,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2367,7 +2305,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2411,10 +2349,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2371,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2447,7 +2385,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2461,7 +2399,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2474,7 +2412,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2488,7 +2426,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>85</v>
       </c>
@@ -2498,7 +2436,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>83</v>
       </c>
@@ -2512,7 +2450,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2549,11 +2487,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2580,15 +2515,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>500</v>
       </c>
-      <c r="I9" s="19">
-        <v>42082</v>
+      <c r="I9" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2615,15 +2547,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19">
-        <v>42083</v>
+      <c r="I10" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2650,15 +2579,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19">
-        <v>42083</v>
+      <c r="I11" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2685,15 +2611,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19">
-        <v>42082</v>
+      <c r="I12" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2720,15 +2643,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
-        <v>42082</v>
+      <c r="I13" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J13" s="22"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2755,15 +2675,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2440</v>
       </c>
-      <c r="I14" s="19">
-        <v>42082</v>
+      <c r="I14" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2790,15 +2707,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
-        <v>42082</v>
+      <c r="I15" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J15" s="22"/>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2825,15 +2739,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>42082</v>
+      <c r="I16" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2860,15 +2771,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19">
-        <v>42085</v>
+      <c r="I17" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2895,15 +2803,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>42082</v>
+      <c r="I18" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2930,15 +2835,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>42082</v>
+      <c r="I19" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2965,17 +2867,14 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2580</v>
       </c>
-      <c r="I20" s="19">
-        <v>42082</v>
+      <c r="I20" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="12"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -3002,19 +2901,16 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>100</v>
       </c>
-      <c r="I21" s="19">
-        <v>42082</v>
+      <c r="I21" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>80</v>
       </c>
-      <c r="M21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -3041,15 +2937,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19">
-        <v>42082</v>
+      <c r="I22" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3076,15 +2969,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19">
-        <v>42082</v>
+      <c r="I23" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3111,15 +3001,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>330</v>
       </c>
-      <c r="I24" s="19">
-        <v>42082</v>
+      <c r="I24" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J24" s="22"/>
-      <c r="M24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3146,15 +3033,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19">
-        <v>42082</v>
+      <c r="I25" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -3181,15 +3065,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19">
-        <v>42082</v>
+      <c r="I26" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3222,7 +3103,7 @@
         <v>5930</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -3238,7 +3119,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3252,7 +3133,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -3272,7 +3153,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
